--- a/Thiết kế/Thiết kế giao diện/NgManDat/Chấm công Check in - Lịch sử.xlsx
+++ b/Thiết kế/Thiết kế giao diện/NgManDat/Chấm công Check in - Lịch sử.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\Thiết kế giao diện\NgManDat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NgManDat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6FE917-F328-4E82-A7A2-DB2FC1588FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD53BC-5DB7-4D1F-BC61-9E0D0514B4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93EB45F7-56C3-4B7A-8563-2AB1B894BB22}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -112,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,27 +142,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +683,7 @@
   <dimension ref="A15:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -555,100 +699,106 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
